--- a/1USEPA_PSDM/5PSDM_EditMathieu/Example_TCE_F400_example1.xlsx
+++ b/1USEPA_PSDM/5PSDM_EditMathieu/Example_TCE_F400_example1.xlsx
@@ -450,119 +450,119 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1.22893724918646e-08</v>
+        <v>1.22892032446913e-08</v>
       </c>
       <c r="B3" t="n">
-        <v>0.213602659874883</v>
+        <v>0.2135997197666553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2.45787449837292e-08</v>
+        <v>2.457840648938261e-08</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4268476693317584</v>
+        <v>0.4268417958811121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1.474724699023752e-07</v>
+        <v>1.474704389362956e-07</v>
       </c>
       <c r="B5" t="n">
-        <v>2.528089325075267</v>
+        <v>2.528054710109437</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2.703661948210212e-07</v>
+        <v>2.703624713832087e-07</v>
       </c>
       <c r="B6" t="n">
-        <v>4.594126301821574</v>
+        <v>4.594063614765579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8.196615874247366e-07</v>
+        <v>8.196549953159687e-07</v>
       </c>
       <c r="B7" t="n">
-        <v>13.43066777888156</v>
+        <v>13.43055989561794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1.368956980028452e-06</v>
+        <v>1.368947519248729e-06</v>
       </c>
       <c r="B8" t="n">
-        <v>21.60197373111146</v>
+        <v>21.60182227591759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1.918252372632167e-06</v>
+        <v>1.918240043181488e-06</v>
       </c>
       <c r="B9" t="n">
-        <v>29.12659817239686</v>
+        <v>29.12640520998047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.630950089593343e-06</v>
+        <v>4.630914581658075e-06</v>
       </c>
       <c r="B10" t="n">
-        <v>58.19250322242483</v>
+        <v>58.1920709930527</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7.343647806554519e-06</v>
+        <v>7.343589120134662e-06</v>
       </c>
       <c r="B11" t="n">
-        <v>75.38764902385788</v>
+        <v>75.38712889493199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1.005634552351569e-05</v>
+        <v>1.005626365861125e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>83.34377754058457</v>
+        <v>83.34330937074373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1.618216868217788e-05</v>
+        <v>1.618462863922117e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>77.70647895522771</v>
+        <v>77.69882945922227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2.230799184084006e-05</v>
+        <v>2.231299361983109e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>55.18461472178235</v>
+        <v>55.16173341493074</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2.843381499950225e-05</v>
+        <v>2.844135860044102e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>27.96808490527946</v>
+        <v>27.93356402973638</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.325957740895846e-05</v>
+        <v>3.326663143493619e-05</v>
       </c>
       <c r="B16" t="n">
-        <v>7.619700908224123</v>
+        <v>7.591620518708073</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.808533981841468e-05</v>
+        <v>3.809190426943136e-05</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.29111022278709e-05</v>
+        <v>4.291717710392654e-05</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.773686463732712e-05</v>
+        <v>4.77424499384217e-05</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>5.735126713423972e-05</v>
+        <v>5.737439893999226e-05</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6.696566963115232e-05</v>
+        <v>6.700634794156278e-05</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>7.65800721280649e-05</v>
+        <v>7.663829694313331e-05</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>8.61944746249775e-05</v>
+        <v>8.627024594470382e-05</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>9.580887712189009e-05</v>
+        <v>9.590219494627436e-05</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0.0001084228189022908</v>
+        <v>0.0001085179000408671</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>0.0001210367606826915</v>
+        <v>0.0001211336051354598</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>0.0001336507024630922</v>
+        <v>0.0001337493102300526</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>0.0001462646442434929</v>
+        <v>0.0001463650153246453</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0.00016368923301822</v>
+        <v>0.0001638087479680696</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0.0001811138217929472</v>
+        <v>0.0001812524806114939</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0.0001985384105676744</v>
+        <v>0.0001986962132549182</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>0.0002159629993424016</v>
+        <v>0.0002161399458983425</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>0.0002429566647298913</v>
+        <v>0.0002431654840173254</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>0.0002699503301173812</v>
+        <v>0.0002701910221363084</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>0.000296943995504871</v>
+        <v>0.0002972165602552914</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>0.0003239376608923608</v>
+        <v>0.0003242420983742744</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>0.0003509313262798506</v>
+        <v>0.0003512676364932574</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>0.0004138220870654156</v>
+        <v>0.0004142647490230297</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>0.0004767128478509805</v>
+        <v>0.0004772618615528021</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>0.0005396036086365453</v>
+        <v>0.0005402589740825744</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>0.0006024943694221102</v>
+        <v>0.0006032560866123469</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>0.0007671544159765318</v>
+        <v>0.0007701800610642629</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>0.0009318144625309531</v>
+        <v>0.0009371040355161789</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>0.001096474509085375</v>
+        <v>0.001104028009968095</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0.001466046327331114</v>
+        <v>0.001591809025382652</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>0.001835618145576852</v>
+        <v>0.00207959004079721</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0.002205189963822591</v>
+        <v>0.002567371056211768</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>0.002574761782068329</v>
+        <v>0.003790761021694383</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0.003352016330665409</v>
+        <v>0.005014150987176997</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>0.004129270879262487</v>
+        <v>0.006237540952659612</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0.004906525427859566</v>
+        <v>0.007460930918142228</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>0.005683779976456645</v>
+        <v>0.009222541583705527</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>0.006461034525053724</v>
+        <v>0.01098415224926882</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>0.007846595808759883</v>
+        <v>0.01274576291483212</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>0.009232157092466043</v>
+        <v>0.01450737358039542</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>0.0106177183761722</v>
+        <v>0.01626898424595872</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>0.01200327965987836</v>
+        <v>0.02020706011534412</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>0.01478229348893312</v>
+        <v>0.0241451359847295</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>0.01756130731798787</v>
+        <v>0.0280832118541149</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>0.02034032114704263</v>
+        <v>0.03202128772350029</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0.02311933497609739</v>
+        <v>0.03595936359288568</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0.02776268071415587</v>
+        <v>0.04345898362769872</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>0.03240602645221435</v>
+        <v>0.05095860366251175</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>0.03704937219027282</v>
+        <v>0.05845822369732479</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>0.04169271792833129</v>
+        <v>0.06595784373213782</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0.04633606366638977</v>
+        <v>0.07800594911587486</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>0.05640523368634897</v>
+        <v>0.09005405449961187</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>0.06647440370630818</v>
+        <v>0.1021021598833489</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>0.07654357372626738</v>
+        <v>0.1141502652670859</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>0.0866127437462266</v>
+        <v>0.1338921463890596</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0.1011673979185706</v>
+        <v>0.1536340275110331</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>0.1157220520909145</v>
+        <v>0.1733759086330067</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>0.1302767062632585</v>
+        <v>0.1931177897549803</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>0.1448313604356025</v>
+        <v>0.2241913741007573</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>0.1593860146079465</v>
+        <v>0.2552649584465344</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>0.1823244943942784</v>
+        <v>0.2863385427923114</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>0.2052629741806103</v>
+        <v>0.3174121271380884</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>0.2282014539669421</v>
+        <v>0.3676092069970556</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>0.251139933753274</v>
+        <v>0.4178062868560229</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>0.2841008511182749</v>
+        <v>0.4680033667149901</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>0.3170617684832757</v>
+        <v>0.5182004465739574</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>0.3500226858482766</v>
+        <v>0.5683975264329245</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -1090,175 +1090,175 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>0.3829836032132775</v>
+        <v>0.6461064270500515</v>
       </c>
       <c r="B83" t="n">
-        <v>1.337492488161943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>0.4159445205782783</v>
+        <v>0.7238153276671784</v>
       </c>
       <c r="B84" t="n">
-        <v>2.60870188948006</v>
+        <v>0.8322827154320703</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>0.4727250258738857</v>
+        <v>0.8015242282843054</v>
       </c>
       <c r="B85" t="n">
-        <v>4.630472971419075</v>
+        <v>2.165576650428971</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>0.5295055311694931</v>
+        <v>0.8792331289014323</v>
       </c>
       <c r="B86" t="n">
-        <v>6.443333419060823</v>
+        <v>3.39584292803633</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>0.5862860364651005</v>
+        <v>0.9569420295185592</v>
       </c>
       <c r="B87" t="n">
-        <v>8.053215146487695</v>
+        <v>4.527337116795706</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>0.6430665417607079</v>
+        <v>1.083351458043025</v>
       </c>
       <c r="B88" t="n">
-        <v>9.46758598182369</v>
+        <v>6.169422731797286</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>0.6998470470563153</v>
+        <v>1.209760886567492</v>
       </c>
       <c r="B89" t="n">
-        <v>10.6944086850873</v>
+        <v>7.577760789175906</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>0.7861740726882067</v>
+        <v>1.336170315091958</v>
       </c>
       <c r="B90" t="n">
-        <v>12.21342190441196</v>
+        <v>8.769650623397963</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>0.872501098320098</v>
+        <v>1.462579743616424</v>
       </c>
       <c r="B91" t="n">
-        <v>13.34271885107683</v>
+        <v>9.761398750685753</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>0.9588281239519894</v>
+        <v>1.58898917214089</v>
       </c>
       <c r="B92" t="n">
-        <v>14.10875413767228</v>
+        <v>10.56580231299516</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>1.045155149583881</v>
+        <v>1.784274640775678</v>
       </c>
       <c r="B93" t="n">
-        <v>14.53666675715549</v>
+        <v>11.4734030903039</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>1.162458278543522</v>
+        <v>1.979560109410466</v>
       </c>
       <c r="B94" t="n">
-        <v>14.62506447247122</v>
+        <v>12.00905032463729</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>1.279761407503163</v>
+        <v>2.174845578045254</v>
       </c>
       <c r="B95" t="n">
-        <v>14.19725124868462</v>
+        <v>12.21371451179539</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>1.397064536462804</v>
+        <v>2.370131046680042</v>
       </c>
       <c r="B96" t="n">
-        <v>13.3238045548948</v>
+        <v>12.12265557069772</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>1.514367665422445</v>
+        <v>2.56541651531483</v>
       </c>
       <c r="B97" t="n">
-        <v>12.06072002408612</v>
+        <v>11.76910622343947</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>1.631670794382087</v>
+        <v>2.841677559419956</v>
       </c>
       <c r="B98" t="n">
-        <v>10.46985197416278</v>
+        <v>10.87552605720817</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>1.791752820997243</v>
+        <v>3.117938603525082</v>
       </c>
       <c r="B99" t="n">
-        <v>7.860573158786976</v>
+        <v>9.587816257383237</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>1.951834847612399</v>
+        <v>3.394199647630208</v>
       </c>
       <c r="B100" t="n">
-        <v>4.860291656603338</v>
+        <v>7.970230870095166</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>2.111916874227554</v>
+        <v>3.670460691735334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.578371427572518</v>
+        <v>6.080513233509186</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>2.271998900842711</v>
+        <v>3.946721735840459</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>3.970276741998421</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>2.472659471643041</v>
+        <v>4.362204830566538</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>0.5176973637715766</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>2.673320042443372</v>
+        <v>4.777687925292618</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>2.873980613243703</v>
+        <v>5.193171020018696</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>3.074641184044034</v>
+        <v>5.608654114744775</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>3.275301754844365</v>
+        <v>6.024137209470855</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>3.535733646941442</v>
+        <v>6.473060074508828</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>3.796165539038518</v>
+        <v>6.921982939546802</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.056597431135595</v>
+        <v>7.370905804584777</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.317029323232672</v>
+        <v>7.81982866962275</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.577461215329748</v>
+        <v>8.268751534660726</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.893626428569677</v>
+        <v>8.842030076927015</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>5.209791641809606</v>
+        <v>9.415308619193304</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -1346,135 +1346,135 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>5.433851054883815</v>
+        <v>9.988587161459595</v>
       </c>
       <c r="B115" t="n">
-        <v>1.45461078487391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>5.657910467958023</v>
+        <v>10.56186570372589</v>
       </c>
       <c r="B116" t="n">
-        <v>6.834044510205702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>5.881969881032232</v>
+        <v>11.13514424599217</v>
       </c>
       <c r="B117" t="n">
-        <v>12.20266336773435</v>
+        <v>0.7004747263610658</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>6.10602929410644</v>
+        <v>11.70842278825847</v>
       </c>
       <c r="B118" t="n">
-        <v>17.36981389220439</v>
+        <v>5.835323067849611</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>6.33008870718065</v>
+        <v>12.26694490867293</v>
       </c>
       <c r="B119" t="n">
-        <v>22.15030844251913</v>
+        <v>10.75886622525509</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>6.554148120254859</v>
+        <v>12.82546702908741</v>
       </c>
       <c r="B120" t="n">
-        <v>26.35371078013973</v>
+        <v>15.38647616137198</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>6.834033308174127</v>
+        <v>13.38398914950188</v>
       </c>
       <c r="B121" t="n">
-        <v>30.53253123139838</v>
+        <v>19.49809857140346</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>7.113918496093396</v>
+        <v>13.94251126991635</v>
       </c>
       <c r="B122" t="n">
-        <v>33.30995271174096</v>
+        <v>22.89136078089874</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>7.393803684012663</v>
+        <v>14.50103339033082</v>
       </c>
       <c r="B123" t="n">
-        <v>34.53158934900872</v>
+        <v>25.4548110306321</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>7.673688871931931</v>
+        <v>15.11560469979506</v>
       </c>
       <c r="B124" t="n">
-        <v>34.12709862077276</v>
+        <v>27.20100864336929</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>7.953574059851199</v>
+        <v>15.7301760092593</v>
       </c>
       <c r="B125" t="n">
-        <v>32.11211384757625</v>
+        <v>27.72268633305902</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>8.310166337909063</v>
+        <v>16.34474731872354</v>
       </c>
       <c r="B126" t="n">
-        <v>27.35683922729439</v>
+        <v>26.96328539773029</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>8.666758615966927</v>
+        <v>16.95931862818778</v>
       </c>
       <c r="B127" t="n">
-        <v>20.44165561633877</v>
+        <v>24.91441015258475</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>9.023350894024789</v>
+        <v>17.57388993765202</v>
       </c>
       <c r="B128" t="n">
-        <v>11.81318464275387</v>
+        <v>21.6162401780168</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>9.379943172082651</v>
+        <v>18.42595134531764</v>
       </c>
       <c r="B129" t="n">
-        <v>1.962746836643706</v>
+        <v>15.14663383423735</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>9.736535450140515</v>
+        <v>19.27801275298326</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>6.814603287516749</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>10.10383168168254</v>
+        <v>20.13007416064887</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>10.47112791322456</v>
+        <v>20.98213556831449</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>10.83842414476658</v>
+        <v>21.57825857276901</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>11.20572037630861</v>
+        <v>22.17438157722352</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>11.57301660785063</v>
+        <v>22.77050458167803</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>11.96603877270395</v>
+        <v>23.36662758613255</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>12.35906093755726</v>
+        <v>23.96275059058706</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>12.75208310241058</v>
+        <v>24.49732360449266</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>13.1451052672639</v>
+        <v>25.03189661839826</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>13.53812743211721</v>
+        <v>25.56646963230386</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -1554,159 +1554,159 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>13.99922303935445</v>
+        <v>26.10104264620947</v>
       </c>
       <c r="B141" t="n">
-        <v>4.62180363024541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>14.46031864659169</v>
+        <v>26.63561566011507</v>
       </c>
       <c r="B142" t="n">
-        <v>21.82833188347425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>14.80962311963445</v>
+        <v>27.55078234371459</v>
       </c>
       <c r="B143" t="n">
-        <v>34.63918108640578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>15.1589275926772</v>
+        <v>28.46594902731411</v>
       </c>
       <c r="B144" t="n">
-        <v>46.40240492373704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>15.50823206571996</v>
+        <v>29.38111571091363</v>
       </c>
       <c r="B145" t="n">
-        <v>56.2475027567499</v>
+        <v>4.675135877136868</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>15.85753653876272</v>
+        <v>30.07700141638401</v>
       </c>
       <c r="B146" t="n">
-        <v>63.30787032556514</v>
+        <v>14.1083075101536</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>16.20684101180548</v>
+        <v>30.7728871218544</v>
       </c>
       <c r="B147" t="n">
-        <v>67.1193206975835</v>
+        <v>23.37809690234263</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>16.55614548484824</v>
+        <v>31.46877282732478</v>
       </c>
       <c r="B148" t="n">
-        <v>67.37376206434051</v>
+        <v>32.05852131678331</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>16.93210688212805</v>
+        <v>31.94924398475078</v>
       </c>
       <c r="B149" t="n">
-        <v>63.25500022136995</v>
+        <v>37.519633574234</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>17.30806827940786</v>
+        <v>32.4297151421768</v>
       </c>
       <c r="B150" t="n">
-        <v>54.60787034434636</v>
+        <v>42.37838940504916</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>17.68402967668766</v>
+        <v>32.91018629960281</v>
       </c>
       <c r="B151" t="n">
-        <v>41.56954701909974</v>
+        <v>46.52968576807819</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>18.05999107396747</v>
+        <v>33.39065745702882</v>
       </c>
       <c r="B152" t="n">
-        <v>24.62124497466121</v>
+        <v>49.98465541108887</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>18.43595247124728</v>
+        <v>33.99434386537478</v>
       </c>
       <c r="B153" t="n">
-        <v>4.53780339902592</v>
+        <v>53.16834787594397</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>18.85615240886293</v>
+        <v>34.59803027372075</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>54.84631724838692</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>19.27635234647858</v>
+        <v>35.20171668206671</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>54.78346332747845</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>19.54771382853119</v>
+        <v>35.80540309041267</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>52.76456931505431</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>19.8190753105838</v>
+        <v>36.70612965436384</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>45.76764198398056</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>20.09043679263641</v>
+        <v>37.606856218315</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>33.81691267291223</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>20.36179827468903</v>
+        <v>38.50758278226616</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>17.1713447340447</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>20.63315975674163</v>
+        <v>39.40830934621732</v>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>20.96900388320986</v>
+        <v>40.30903591016848</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>21.30484800967809</v>
+        <v>41.08513240328156</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>21.64069213614632</v>
+        <v>41.86122889639464</v>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>21.97653626261455</v>
+        <v>42.63732538950772</v>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>22.31238038908278</v>
+        <v>43.41342188262081</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -1754,175 +1754,175 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>22.73324334445923</v>
+        <v>44.18951837573388</v>
       </c>
       <c r="B166" t="n">
-        <v>19.08477279321942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>23.15410629983568</v>
+        <v>44.88184506066105</v>
       </c>
       <c r="B167" t="n">
-        <v>58.00452948683238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>23.44749798665175</v>
+        <v>45.57417174558821</v>
       </c>
       <c r="B168" t="n">
-        <v>84.98170029242135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>23.66081876095708</v>
+        <v>46.26649843051538</v>
       </c>
       <c r="B169" t="n">
-        <v>103.1139328402486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>23.80284759440449</v>
+        <v>46.95882511544254</v>
       </c>
       <c r="B170" t="n">
-        <v>113.8558698371081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>23.9448764278519</v>
+        <v>47.6511518003697</v>
       </c>
       <c r="B171" t="n">
-        <v>123.1290494403936</v>
+        <v>9.398867303361156</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>24.08690526129931</v>
+        <v>48.53328620617431</v>
       </c>
       <c r="B172" t="n">
-        <v>130.8923661205761</v>
+        <v>37.07069381380938</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>24.22893409474671</v>
+        <v>48.94461799316296</v>
       </c>
       <c r="B173" t="n">
-        <v>136.9807956250364</v>
+        <v>49.90804259954982</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>24.37096292819412</v>
+        <v>49.27146383609195</v>
       </c>
       <c r="B174" t="n">
-        <v>141.1877869314254</v>
+        <v>59.80532200039487</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>24.51299176164153</v>
+        <v>49.59830967902094</v>
       </c>
       <c r="B175" t="n">
-        <v>143.2833306624039</v>
+        <v>69.29119969821673</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>24.79016605292511</v>
+        <v>49.92515552194993</v>
       </c>
       <c r="B176" t="n">
-        <v>140.3512638517747</v>
+        <v>78.17306995130393</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>25.06734034420869</v>
+        <v>50.25200136487892</v>
       </c>
       <c r="B177" t="n">
-        <v>126.6021125474569</v>
+        <v>86.1365721218783</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>25.34451463549227</v>
+        <v>50.57884720780791</v>
       </c>
       <c r="B178" t="n">
-        <v>100.5492035807107</v>
+        <v>93.27831984331718</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>25.62168892677585</v>
+        <v>50.9056930507369</v>
       </c>
       <c r="B179" t="n">
-        <v>61.60477181635942</v>
+        <v>99.55860607776171</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>25.89886321805944</v>
+        <v>51.36225789275844</v>
       </c>
       <c r="B180" t="n">
-        <v>10.56535963640416</v>
+        <v>106.1639825847887</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>26.23624343090853</v>
+        <v>51.81882273477998</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>109.6620417278789</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>26.47884305723312</v>
+        <v>52.27538757680153</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>109.0591266149879</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>26.66836404908019</v>
+        <v>52.73195241882306</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>103.3744754187999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>26.85788504092725</v>
+        <v>53.18851726084461</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>91.71403256641402</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>27.04740603277432</v>
+        <v>53.90310021006859</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>59.99867000473498</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>27.23692702462138</v>
+        <v>54.61768315929258</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>11.59345072512449</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>27.42644801646845</v>
+        <v>55.08582584120459</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -1930,314 +1930,314 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>27.61596900831552</v>
+        <v>55.5539685231166</v>
       </c>
       <c r="B188" t="n">
-        <v>55.03626984949528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>27.7706128982515</v>
+        <v>56.0221112050286</v>
       </c>
       <c r="B189" t="n">
-        <v>167.918722712406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>27.92525678818748</v>
+        <v>56.49025388694061</v>
       </c>
       <c r="B190" t="n">
-        <v>307.5996739325102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>28.07990067812347</v>
+        <v>56.95839656885263</v>
       </c>
       <c r="B191" t="n">
-        <v>478.2085372608216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>28.23454456805945</v>
+        <v>57.49163846759936</v>
       </c>
       <c r="B192" t="n">
-        <v>689.1343281567177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>28.38918845799543</v>
+        <v>58.02488036634608</v>
       </c>
       <c r="B193" t="n">
-        <v>956.7866202067339</v>
+        <v>101.1296741359905</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>28.60168219118928</v>
+        <v>58.55812226509281</v>
       </c>
       <c r="B194" t="n">
-        <v>1465.561053787511</v>
+        <v>258.6467878994138</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>28.81417592438314</v>
+        <v>59.09136416383954</v>
       </c>
       <c r="B195" t="n">
-        <v>2226.668738732553</v>
+        <v>497.0738072857412</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>29.02666965757699</v>
+        <v>59.62460606258627</v>
       </c>
       <c r="B196" t="n">
-        <v>3359.891755224572</v>
+        <v>865.2252512712217</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>29.23916339077084</v>
+        <v>60.21470713511178</v>
       </c>
       <c r="B197" t="n">
-        <v>4983.142600706999</v>
+        <v>1518.549232394471</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>29.45165712396469</v>
+        <v>60.80480820763731</v>
       </c>
       <c r="B198" t="n">
-        <v>7160.066173822645</v>
+        <v>2565.727928880427</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>29.69369746717776</v>
+        <v>61.39490928016283</v>
       </c>
       <c r="B199" t="n">
-        <v>10269.63487947294</v>
+        <v>4151.919161785067</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>29.93573781039084</v>
+        <v>61.98501035268835</v>
       </c>
       <c r="B200" t="n">
-        <v>13862.17180732013</v>
+        <v>6358.94700171948</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>30.17777815360391</v>
+        <v>62.57511142521387</v>
       </c>
       <c r="B201" t="n">
-        <v>17653.61881617107</v>
+        <v>9162.387913502778</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>30.41981849681698</v>
+        <v>63.16521249773938</v>
       </c>
       <c r="B202" t="n">
-        <v>21415.44665144375</v>
+        <v>12416.28235511816</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>30.71818989464184</v>
+        <v>63.84543057416602</v>
       </c>
       <c r="B203" t="n">
-        <v>25793.84339171042</v>
+        <v>16475.41326656814</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>31.01656129246669</v>
+        <v>64.52564865059267</v>
       </c>
       <c r="B204" t="n">
-        <v>29747.69580081971</v>
+        <v>20589.69058909729</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>31.31493269029153</v>
+        <v>65.2058667270193</v>
       </c>
       <c r="B205" t="n">
-        <v>33225.7305539927</v>
+        <v>24547.41619595748</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>31.61330408811638</v>
+        <v>65.88608480344594</v>
       </c>
       <c r="B206" t="n">
-        <v>36228.38820083482</v>
+        <v>28227.54811783458</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>32.0601447442361</v>
+        <v>66.56630287987258</v>
       </c>
       <c r="B207" t="n">
-        <v>39884.89504636051</v>
+        <v>31547.70407898811</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>32.50698540035582</v>
+        <v>67.64505767765327</v>
       </c>
       <c r="B208" t="n">
-        <v>42666.72433970001</v>
+        <v>36039.06367944829</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>32.95382605647553</v>
+        <v>68.72381247543396</v>
       </c>
       <c r="B209" t="n">
-        <v>44736.6795999664</v>
+        <v>39597.03728012267</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>33.40066671259525</v>
+        <v>69.80256727321465</v>
       </c>
       <c r="B210" t="n">
-        <v>46248.17567875971</v>
+        <v>42331.10684918617</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>34.23504362954655</v>
+        <v>70.88132207099534</v>
       </c>
       <c r="B211" t="n">
-        <v>47993.7935590132</v>
+        <v>44387.03712704953</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>35.06942054649785</v>
+        <v>72.52208547630299</v>
       </c>
       <c r="B212" t="n">
-        <v>48916.19038271826</v>
+        <v>46548.04732968598</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>35.90379746344916</v>
+        <v>74.16284888161064</v>
       </c>
       <c r="B213" t="n">
-        <v>49415.96708910613</v>
+        <v>47885.62247998805</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>36.73817438040046</v>
+        <v>75.80361228691829</v>
       </c>
       <c r="B214" t="n">
-        <v>49687.80144741999</v>
+        <v>48714.17105914107</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>37.84274414399088</v>
+        <v>77.44437569222595</v>
       </c>
       <c r="B215" t="n">
-        <v>49878.42020485862</v>
+        <v>49222.87861406853</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>38.94731390758131</v>
+        <v>80.18544781018936</v>
       </c>
       <c r="B216" t="n">
-        <v>49955.2654975336</v>
+        <v>49693.03121949596</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>40.05188367117174</v>
+        <v>82.92651992815279</v>
       </c>
       <c r="B217" t="n">
-        <v>49975.40850327622</v>
+        <v>49896.78219391593</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>41.15645343476216</v>
+        <v>85.66759204611623</v>
       </c>
       <c r="B218" t="n">
-        <v>49980.42304231034</v>
+        <v>49964.47247593802</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>42.26102319835259</v>
+        <v>88.40866416407965</v>
       </c>
       <c r="B219" t="n">
-        <v>49987.15746889728</v>
+        <v>49979.3934135054</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44.62690893354124</v>
+        <v>91.14973628204308</v>
       </c>
       <c r="B220" t="n">
-        <v>49992.39737004752</v>
+        <v>49985.94651513795</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>46.99279466872989</v>
+        <v>96.68684874292056</v>
       </c>
       <c r="B221" t="n">
-        <v>49999.31831142837</v>
+        <v>49983.30723251389</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>49.35868040391853</v>
+        <v>102.2239612037981</v>
       </c>
       <c r="B222" t="n">
-        <v>50001.90727945892</v>
+        <v>49995.1347924783</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>51.72456613910718</v>
+        <v>107.7610736646755</v>
       </c>
       <c r="B223" t="n">
-        <v>50000.54127839572</v>
+        <v>50004.41823355221</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>67.06405664600234</v>
+        <v>113.298186125553</v>
       </c>
       <c r="B224" t="n">
-        <v>50000.84842476455</v>
+        <v>50003.82598270509</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>82.40354715289752</v>
+        <v>134.5534012697039</v>
       </c>
       <c r="B225" t="n">
-        <v>49999.51218253074</v>
+        <v>50001.83358649005</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>97.74303765979268</v>
+        <v>155.8086164138547</v>
       </c>
       <c r="B226" t="n">
-        <v>49999.87166402803</v>
+        <v>49999.06603140965</v>
       </c>
     </row>
     <row r="227">
@@ -2245,7 +2245,7 @@
         <v>174</v>
       </c>
       <c r="B227" t="n">
-        <v>49999.99918596521</v>
+        <v>49999.58016449985</v>
       </c>
     </row>
   </sheetData>
